--- a/week4/MidtestProject/data.xlsx
+++ b/week4/MidtestProject/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1125.50</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1119.00</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1113.50</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1120.50</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1124.00</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1126.00</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1123.00</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117.50</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1108.50</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1114.00</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1112.00</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1111.00</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117.50</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117.50</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1119.00</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1114.50</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1115.00</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117.00</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>1116.50</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,2167 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1115.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021.04.13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1124.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021.04.12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021.04.09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1121.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021.04.08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1117.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021.04.07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1118.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021.04.06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1121.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021.04.05</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1128.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021.04.02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1129.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021.04.01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1131.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021.03.31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1130.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021.03.30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1135.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021.03.29</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1132.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021.03.26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1131.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021.03.25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1134.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021.03.24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1132.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021.03.23</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1130.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021.03.22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2021.03.19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1130.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021.03.18</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021.03.17</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1129.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021.03.16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1130.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021.03.15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1133.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021.03.12</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1136.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021.03.11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1133.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021.03.10</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1142.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021.03.09</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1138.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021.03.08</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1138.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021.03.05</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1129.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021.03.04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021.03.03</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1122.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021.03.02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1124.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021.02.26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1126.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021.02.25</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1109.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021.02.24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1109.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021.02.23</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1112.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021.02.22</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1112.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021.02.19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1106.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021.02.18</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1107.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021.02.17</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1107.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021.02.16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1102.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021.02.15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1102.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021.02.10</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1107.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2021.02.09</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1113.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021.02.08</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1121.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2021.02.05</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1123.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2021.02.04</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1118.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021.02.03</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1116.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2021.02.02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1116.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2021.02.01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1119.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021.01.29</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1117.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021.01.28</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1118.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021.01.27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1105.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021.01.26</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1105.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021.01.25</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1102.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021.01.22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1105.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021.01.21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1101.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021.01.20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1101.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021.01.19</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1102.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021.01.18</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1107.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021.01.15</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1103.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021.01.14</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1096.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021.01.13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1097.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021.01.12</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021.01.11</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1098.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021.01.08</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1092.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021.01.07</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1092.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021.01.06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1086.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021.01.05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1089.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021.01.04</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1082.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020.12.31</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1088.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020.12.30</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1087.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020.12.29</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1093.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020.12.28</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1096.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020.12.24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1103.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020.12.23</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1107.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020.12.22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1106.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020.12.21</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1109.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020.12.18</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1099.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020.12.17</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1094.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020.12.16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1091.00</t>
         </is>
       </c>
     </row>
